--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>url</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Bikash Dubey</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Nagaland</t>
   </si>
 </sst>
 </file>
@@ -90,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1048,16 +1054,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="92.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="21.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="19.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="21.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="15.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="17.1428571428571" customWidth="1"/>
-    <col min="10" max="10" width="18.4285714285714" customWidth="1"/>
-    <col min="11" max="11" width="20.2857142857143" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="92.7142857142857"/>
+    <col min="5" max="5" customWidth="true" width="21.8571428571429"/>
+    <col min="6" max="6" customWidth="true" width="19.5714285714286"/>
+    <col min="7" max="7" customWidth="true" width="21.2857142857143"/>
+    <col min="8" max="8" customWidth="true" width="15.7142857142857"/>
+    <col min="9" max="9" customWidth="true" width="17.1428571428571"/>
+    <col min="10" max="10" customWidth="true" width="18.4285714285714"/>
+    <col min="11" max="11" customWidth="true" width="20.2857142857143"/>
+    <col min="12" max="12" customWidth="true" width="16.0"/>
+    <col min="14" max="14" customWidth="true" width="14.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1071,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1115,7 +1121,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
